--- a/notebooks/hand_cleaning/Cleaning notes.xlsx
+++ b/notebooks/hand_cleaning/Cleaning notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasmago/PhD_code_data/github/eeg_jhana/notebooks/hand_cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9CD8B6-E7B8-E44E-932E-8EC6DD814CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08960CF7-AC46-564F-B9A4-98568012154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{8FBA2BF7-55C1-3B4F-BE0C-341332965AAD}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="2" xr2:uid="{8FBA2BF7-55C1-3B4F-BE0C-341332965AAD}"/>
   </bookViews>
   <sheets>
     <sheet name="resting_state" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="664">
   <si>
     <t xml:space="preserve"> '../../data/mne_raw_events/sub0-day1-mindfulness_mmn-raw_phot-events.fif',</t>
   </si>
@@ -2014,6 +2014,27 @@
   </si>
   <si>
     <t>low psd LOTS OF NOISE + AF3 high psd noise</t>
+  </si>
+  <si>
+    <t>Cz is bad</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>FC2 is bad</t>
+  </si>
+  <si>
+    <t>BAD</t>
+  </si>
+  <si>
+    <t>Include based on MMN</t>
+  </si>
+  <si>
+    <t>Include based on evoked</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -4609,8 +4630,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="F2:F1048576 G13:I13 G17 H14:I28 G27 G29:I29 G48:G49 H30:I51 H53:I80 H81">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4621,8 +4642,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F1048576 G13:I13 G17 H14:I28 G27 G29:I29 G48:G49 H30:I51 H53:I80 H81">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="I81">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5652,26 +5673,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBACCC0F-E266-A943-974A-BDDED503B8D4}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="9" customWidth="1"/>
     <col min="2" max="2" width="75.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="11" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="13" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1">
+    <row r="1" spans="1:13" s="9" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>179</v>
       </c>
@@ -5679,2250 +5702,2542 @@
         <v>78</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="17">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A2" s="10">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G2" s="6">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="I2" s="6">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="17">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="I3" s="6">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M3" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="I4" s="6">
         <v>6</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M4" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="H5" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="G5" s="6">
+      <c r="I5" s="6">
         <v>6</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="17">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="H6" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="G6" s="6">
+      <c r="I6" s="6">
         <v>6</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M6" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="H7" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="G7" s="6">
+      <c r="I7" s="6">
         <v>6</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M7" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="G8" s="6">
+      <c r="I8" s="6">
         <v>6</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="17">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="C9" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="G9" s="6">
+      <c r="I9" s="6">
         <v>4</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="17">
+      <c r="M9" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17">
       <c r="A10" s="10">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E10" t="s">
         <v>507</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>506</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>505</v>
       </c>
-      <c r="G10" s="6">
+      <c r="I10" s="6">
         <v>3</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>341</v>
       </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" t="s">
         <v>84</v>
       </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17">
+      <c r="M10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17">
       <c r="A11" s="10">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E11" t="s">
         <v>507</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>506</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>509</v>
       </c>
-      <c r="G11" s="6">
+      <c r="I11" s="6">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>341</v>
       </c>
-      <c r="I11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s">
         <v>84</v>
       </c>
-      <c r="K11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17">
+      <c r="M11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17">
       <c r="A12" s="10">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G12" t="s">
         <v>506</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>508</v>
       </c>
-      <c r="G12" s="6">
+      <c r="I12" s="6">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" t="s">
         <v>84</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:13" ht="17">
       <c r="A13" s="10">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E13" t="s">
         <v>510</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>506</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>511</v>
       </c>
-      <c r="G13" s="6">
+      <c r="I13" s="6">
         <v>4</v>
       </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
         <v>512</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17">
+    <row r="14" spans="1:13" ht="17">
       <c r="A14" s="10">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="G14" t="s">
         <v>506</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>513</v>
       </c>
-      <c r="G14" s="6">
+      <c r="I14" s="6">
         <v>4</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>359</v>
       </c>
-      <c r="I14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
         <v>84</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17">
+    <row r="15" spans="1:13" ht="17">
       <c r="A15" s="10">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="G15" t="s">
         <v>506</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>514</v>
       </c>
-      <c r="G15" s="6">
+      <c r="I15" s="6">
         <v>3</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>515</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>84</v>
       </c>
-      <c r="K15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="17">
+      <c r="M15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17">
       <c r="A16" s="10">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E16" t="s">
         <v>517</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>506</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>516</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" t="s">
         <v>84</v>
       </c>
-      <c r="K16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17">
+      <c r="M16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17">
       <c r="A17" s="10">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G17" t="s">
         <v>506</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>518</v>
       </c>
-      <c r="G17" s="6">
+      <c r="I17" s="6">
         <v>5</v>
       </c>
-      <c r="I17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" t="s">
         <v>84</v>
       </c>
-      <c r="K17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A18" s="10">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="G18" s="6">
+      <c r="I18" s="6">
         <v>3</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="17">
+    <row r="19" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A19" s="10">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="G19" s="6">
+      <c r="I19" s="6">
         <v>3</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M19" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A20" s="10">
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="G20" s="6">
+      <c r="I20" s="6">
         <v>5</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M20" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A21" s="10">
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="H21" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="G21" s="6">
+      <c r="I21" s="6">
         <v>4</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M21" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A22" s="10">
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="G22" s="6">
+      <c r="I22" s="6">
         <v>3</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M22" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A23" s="10">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="6">
+      <c r="I23" s="6">
         <v>6</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="6" t="s">
+      <c r="K23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M23" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A24" s="10">
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="G24" s="6">
+      <c r="I24" s="6">
         <v>2</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="K24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M24" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A25" s="10">
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="G25" s="6">
+      <c r="I25" s="6">
         <v>4</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="L25" s="6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="17">
+    <row r="26" spans="1:13" ht="17">
       <c r="A26" s="10">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E26" t="s">
         <v>532</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>506</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>216</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>4</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>341</v>
       </c>
-      <c r="I26" t="s">
-        <v>83</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" t="s">
         <v>531</v>
       </c>
-      <c r="K26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="17">
+      <c r="M26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17">
       <c r="A27" s="10">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E27" t="s">
         <v>534</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>506</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>533</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>2</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>359</v>
       </c>
-      <c r="I27" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" t="s">
-        <v>83</v>
-      </c>
       <c r="K27" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="17">
+      <c r="L27" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17">
       <c r="A28" s="10">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E28" t="s">
         <v>536</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>549</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>506</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>537</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>5</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>341</v>
       </c>
-      <c r="I28" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" t="s">
-        <v>83</v>
-      </c>
       <c r="K28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="17">
+      <c r="L28" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17">
       <c r="A29" s="10">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E29" t="s">
         <v>536</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>549</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>506</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>535</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>5</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>341</v>
       </c>
-      <c r="I29" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29" t="s">
-        <v>83</v>
-      </c>
       <c r="K29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="17">
+      <c r="L29" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17">
       <c r="A30" s="10">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E30" t="s">
         <v>538</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>549</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>506</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>539</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>341</v>
       </c>
-      <c r="I30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J30" t="s">
-        <v>83</v>
-      </c>
       <c r="K30" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="17">
+      <c r="L30" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17">
       <c r="A31" s="10">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E31" t="s">
         <v>538</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>549</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>506</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>2</v>
       </c>
-      <c r="I31" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
+        <v>83</v>
+      </c>
+      <c r="L31" t="s">
         <v>85</v>
       </c>
-      <c r="K31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="17">
+      <c r="M31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17">
       <c r="A32" s="10">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E32" t="s">
         <v>542</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>506</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>541</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>1</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="L32" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="K32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="17">
+      <c r="M32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17">
       <c r="A33" s="10">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E33" t="s">
         <v>542</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>506</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>543</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>2</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>544</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>545</v>
       </c>
-      <c r="K33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A34" s="10">
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="F34" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="G34" s="6">
+      <c r="I34" s="6">
         <v>5</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K34" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A35" s="10">
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="F35" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="G35" s="6">
+      <c r="I35" s="6">
         <v>5</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K35" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A36" s="10">
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="F36" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="G36" s="6">
+      <c r="I36" s="6">
         <v>4</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K36" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A37" s="10">
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="F37" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="G37" s="6">
+      <c r="I37" s="6">
         <v>4</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K37" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A38" s="10">
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="G38" s="6">
+      <c r="I38" s="6">
         <v>4</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K38" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A39" s="10">
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="F39" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="G39" s="6">
+      <c r="I39" s="6">
         <v>4</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K39" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A40" s="10">
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="G40" s="6">
+      <c r="I40" s="6">
         <v>0</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K40" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A41" s="10">
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="G41" s="6">
+      <c r="I41" s="6">
         <v>0</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K41" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="17">
+      <c r="L41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="17">
       <c r="A42" s="10">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E42" t="s">
         <v>560</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>359</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>506</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>559</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>2</v>
       </c>
-      <c r="I42" t="s">
-        <v>83</v>
-      </c>
-      <c r="J42" t="s">
-        <v>83</v>
-      </c>
       <c r="K42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="17">
+      <c r="L42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="17">
       <c r="A43" s="10">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F43" t="s">
         <v>359</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>506</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>561</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>4</v>
       </c>
-      <c r="I43" t="s">
-        <v>83</v>
-      </c>
-      <c r="J43" t="s">
-        <v>83</v>
-      </c>
       <c r="K43" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="17">
+      <c r="L43" t="s">
+        <v>83</v>
+      </c>
+      <c r="M43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="17">
       <c r="A44" s="10">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F44" t="s">
         <v>369</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>506</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>562</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>4</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
         <v>341</v>
       </c>
-      <c r="I44" t="s">
-        <v>83</v>
-      </c>
-      <c r="J44" t="s">
-        <v>83</v>
-      </c>
       <c r="K44" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="17">
+      <c r="L44" t="s">
+        <v>83</v>
+      </c>
+      <c r="M44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17">
       <c r="A45" s="10">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F45" t="s">
         <v>369</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>506</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>563</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>4</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>341</v>
       </c>
-      <c r="I45" t="s">
-        <v>83</v>
-      </c>
-      <c r="J45" t="s">
-        <v>83</v>
-      </c>
       <c r="K45" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="17">
+      <c r="L45" t="s">
+        <v>83</v>
+      </c>
+      <c r="M45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17">
       <c r="A46" s="10">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F46" t="s">
         <v>341</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>506</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>564</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>4</v>
       </c>
-      <c r="I46" t="s">
-        <v>83</v>
-      </c>
-      <c r="J46" t="s">
-        <v>83</v>
-      </c>
       <c r="K46" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="17">
+      <c r="L46" t="s">
+        <v>83</v>
+      </c>
+      <c r="M46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17">
       <c r="A47" s="10">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F47" t="s">
         <v>341</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>506</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>565</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>4</v>
       </c>
-      <c r="H47" t="s">
+      <c r="J47" t="s">
         <v>341</v>
       </c>
-      <c r="I47" t="s">
-        <v>83</v>
-      </c>
-      <c r="J47" t="s">
-        <v>83</v>
-      </c>
       <c r="K47" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="17">
+      <c r="L47" t="s">
+        <v>83</v>
+      </c>
+      <c r="M47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="17">
       <c r="A48" s="10">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F48" t="s">
         <v>341</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>506</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>566</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>4</v>
       </c>
-      <c r="H48" t="s">
+      <c r="J48" t="s">
         <v>341</v>
       </c>
-      <c r="I48" t="s">
-        <v>83</v>
-      </c>
-      <c r="J48" t="s">
-        <v>83</v>
-      </c>
       <c r="K48" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="17">
+      <c r="L48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="17">
       <c r="A49" s="10">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F49" t="s">
         <v>341</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>506</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>204</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>5</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>341</v>
       </c>
-      <c r="I49" t="s">
-        <v>83</v>
-      </c>
-      <c r="J49" t="s">
-        <v>83</v>
-      </c>
       <c r="K49" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L49" t="s">
+        <v>83</v>
+      </c>
+      <c r="M49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A50" s="10">
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="C50" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="G50" s="6">
+      <c r="I50" s="6">
         <v>4</v>
       </c>
-      <c r="I50" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K50" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L50" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A51" s="10">
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="G51" s="6">
+      <c r="I51" s="6">
         <v>1</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K51" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A52" s="10">
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="C52" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="G52" s="6">
+      <c r="I52" s="6">
         <v>3</v>
       </c>
-      <c r="I52" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K52" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A53" s="10">
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="C53" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="G53" s="6">
+      <c r="I53" s="6">
         <v>6</v>
       </c>
-      <c r="I53" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K53" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L53" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A54" s="10">
         <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="C54" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="G54" s="6">
+      <c r="I54" s="6">
         <v>6</v>
       </c>
-      <c r="I54" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K54" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L54" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A55" s="10">
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="C55" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="G55" s="6">
+      <c r="I55" s="6">
         <v>5</v>
       </c>
-      <c r="I55" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K55" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L55" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A56" s="10">
         <v>54</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="G56" s="6">
+      <c r="I56" s="6">
         <v>4</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K56" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L56" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A57" s="10">
         <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="G57" s="6">
+      <c r="I57" s="6">
         <v>5</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K57" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M57" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="17">
+    <row r="58" spans="1:13" ht="17">
       <c r="A58" s="10">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F58" t="s">
         <v>341</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>506</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>574</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>2</v>
       </c>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-      <c r="J58" t="s">
-        <v>83</v>
-      </c>
       <c r="K58" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="17">
+      <c r="L58" t="s">
+        <v>83</v>
+      </c>
+      <c r="M58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="17">
       <c r="A59" s="10">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D59" t="s">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="F59" t="s">
         <v>369</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>506</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>575</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>4</v>
       </c>
-      <c r="I59" t="s">
-        <v>83</v>
-      </c>
-      <c r="J59" t="s">
-        <v>83</v>
-      </c>
       <c r="K59" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="17">
+      <c r="L59" t="s">
+        <v>83</v>
+      </c>
+      <c r="M59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="17">
       <c r="A60" s="10">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D60" t="s">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="F60" t="s">
         <v>341</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>576</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>577</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>3</v>
       </c>
-      <c r="I60" t="s">
-        <v>83</v>
-      </c>
-      <c r="J60" t="s">
-        <v>83</v>
-      </c>
       <c r="K60" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="17">
+      <c r="L60" t="s">
+        <v>83</v>
+      </c>
+      <c r="M60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="17">
       <c r="A61" s="10">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" t="s">
         <v>578</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>506</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="17">
+    <row r="62" spans="1:13" ht="17">
       <c r="A62" s="10">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D62" t="s">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="F62" t="s">
         <v>341</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>506</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
         <v>579</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>4</v>
       </c>
-      <c r="I62" t="s">
-        <v>83</v>
-      </c>
-      <c r="J62" t="s">
-        <v>83</v>
-      </c>
       <c r="K62" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="17">
+      <c r="L62" t="s">
+        <v>83</v>
+      </c>
+      <c r="M62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="17">
       <c r="A63" s="10">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D63" t="s">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="F63" t="s">
         <v>359</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>506</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>580</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>4</v>
       </c>
-      <c r="I63" t="s">
-        <v>83</v>
-      </c>
-      <c r="J63" t="s">
-        <v>83</v>
-      </c>
       <c r="K63" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="17">
+      <c r="L63" t="s">
+        <v>83</v>
+      </c>
+      <c r="M63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="17">
       <c r="A64" s="10">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D64" t="s">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="F64" t="s">
         <v>359</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>506</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>170</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>7</v>
       </c>
-      <c r="I64" t="s">
-        <v>83</v>
-      </c>
-      <c r="J64" t="s">
-        <v>83</v>
-      </c>
       <c r="K64" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="17">
+      <c r="L64" t="s">
+        <v>83</v>
+      </c>
+      <c r="M64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="17">
       <c r="A65" s="10">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="F65" t="s">
         <v>369</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>506</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>581</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>7</v>
       </c>
-      <c r="I65" t="s">
-        <v>83</v>
-      </c>
-      <c r="J65" t="s">
-        <v>83</v>
-      </c>
       <c r="K65" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L65" t="s">
+        <v>83</v>
+      </c>
+      <c r="M65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A66" s="10">
         <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="H66" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="G66" s="6">
+      <c r="I66" s="6">
         <v>3</v>
       </c>
-      <c r="I66" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K66" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L66" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A67" s="10">
         <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="F67" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="G67" s="6">
+      <c r="I67" s="6">
         <v>4</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K67" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L67" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A68" s="10">
         <v>66</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="F68" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="G68" s="6">
+      <c r="I68" s="6">
         <v>4</v>
       </c>
-      <c r="I68" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K68" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L68" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A69" s="10">
         <v>67</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="F69" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="H69" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="G69" s="6">
+      <c r="I69" s="6">
         <v>3</v>
       </c>
-      <c r="I69" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K69" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L69" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A70" s="10">
         <v>68</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="C70" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="F70" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="H70" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="G70" s="6">
+      <c r="I70" s="6">
         <v>5</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K70" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L70" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A71" s="10">
         <v>69</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="C71" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="F71" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="G71" s="6">
+      <c r="I71" s="6">
         <v>5</v>
       </c>
-      <c r="I71" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J71" s="6" t="s">
+      <c r="K71" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L71" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K71" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="M71" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A72" s="10">
         <v>70</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="C72" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="G72" s="6">
+      <c r="I72" s="6">
         <v>5</v>
       </c>
-      <c r="I72" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K72" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" s="6" customFormat="1" ht="17">
+      <c r="L72" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="6" customFormat="1" ht="17">
       <c r="A73" s="10">
         <v>71</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="C73" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="G73" s="6">
+      <c r="I73" s="6">
         <v>5</v>
       </c>
-      <c r="I73" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="K73" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="17">
+      <c r="L73" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="17">
       <c r="A74" s="10">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D74" t="s">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F74" t="s">
         <v>341</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>506</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>592</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>4</v>
       </c>
-      <c r="I74" t="s">
-        <v>83</v>
-      </c>
-      <c r="J74" t="s">
-        <v>83</v>
-      </c>
       <c r="K74" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="17">
+      <c r="L74" t="s">
+        <v>83</v>
+      </c>
+      <c r="M74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="17">
       <c r="A75" s="10">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F75" t="s">
         <v>359</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>506</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>593</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>4</v>
       </c>
-      <c r="I75" t="s">
-        <v>83</v>
-      </c>
-      <c r="J75" t="s">
-        <v>83</v>
-      </c>
       <c r="K75" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="17">
+      <c r="L75" t="s">
+        <v>83</v>
+      </c>
+      <c r="M75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="17">
       <c r="A76" s="10">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D76" t="s">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="F76" t="s">
         <v>341</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>594</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>595</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>4</v>
       </c>
-      <c r="I76" t="s">
-        <v>83</v>
-      </c>
-      <c r="J76" t="s">
-        <v>83</v>
-      </c>
       <c r="K76" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="17">
+      <c r="L76" t="s">
+        <v>83</v>
+      </c>
+      <c r="M76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="17">
       <c r="A77" s="10">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D77" t="s">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="F77" t="s">
         <v>359</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
         <v>594</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H77" t="s">
         <v>596</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>4</v>
       </c>
-      <c r="I77" t="s">
-        <v>83</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
+        <v>83</v>
+      </c>
+      <c r="L77" t="s">
         <v>180</v>
       </c>
-      <c r="K77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="17">
+      <c r="M77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="17">
       <c r="A78" s="10">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D78" t="s">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="F78" t="s">
         <v>359</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G78" t="s">
         <v>506</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>597</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>5</v>
       </c>
-      <c r="I78" t="s">
-        <v>83</v>
-      </c>
-      <c r="J78" t="s">
-        <v>83</v>
-      </c>
       <c r="K78" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="17">
+      <c r="L78" t="s">
+        <v>83</v>
+      </c>
+      <c r="M78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="17">
       <c r="A79" s="10">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D79" t="s">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="F79" t="s">
         <v>369</v>
       </c>
-      <c r="E79" t="s">
+      <c r="G79" t="s">
         <v>506</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
         <v>598</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>5</v>
       </c>
-      <c r="I79" t="s">
-        <v>83</v>
-      </c>
-      <c r="J79" t="s">
-        <v>83</v>
-      </c>
       <c r="K79" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="17">
+      <c r="L79" t="s">
+        <v>83</v>
+      </c>
+      <c r="M79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="17">
       <c r="A80" s="10">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D80" t="s">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="F80" t="s">
         <v>369</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G80" t="s">
         <v>506</v>
       </c>
-      <c r="F80" t="s">
+      <c r="H80" t="s">
         <v>293</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>5</v>
       </c>
-      <c r="I80" t="s">
-        <v>83</v>
-      </c>
-      <c r="J80" t="s">
-        <v>83</v>
-      </c>
       <c r="K80" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="17">
+      <c r="L80" t="s">
+        <v>83</v>
+      </c>
+      <c r="M80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="17">
       <c r="A81" s="10">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D81" t="s">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="F81" t="s">
         <v>369</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>506</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>599</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>5</v>
       </c>
-      <c r="I81" t="s">
-        <v>83</v>
-      </c>
-      <c r="J81" t="s">
-        <v>83</v>
-      </c>
       <c r="K81" t="s">
         <v>83</v>
       </c>
+      <c r="L81" t="s">
+        <v>83</v>
+      </c>
+      <c r="M81" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576 H11 H28 H30">
+  <conditionalFormatting sqref="I1:I1048576 J11 J28 J30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -10005,7 +10320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6649963-3D88-8F47-B644-BB73E4924368}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+    <sheetView zoomScale="137" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/notebooks/hand_cleaning/Cleaning notes.xlsx
+++ b/notebooks/hand_cleaning/Cleaning notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasmago/PhD_code_data/github/eeg_jhana/notebooks/hand_cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08960CF7-AC46-564F-B9A4-98568012154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C797EF51-2D03-BB43-B024-F39E184D972A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="2" xr2:uid="{8FBA2BF7-55C1-3B4F-BE0C-341332965AAD}"/>
+    <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="8" xr2:uid="{8FBA2BF7-55C1-3B4F-BE0C-341332965AAD}"/>
   </bookViews>
   <sheets>
     <sheet name="resting_state" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="mmn" sheetId="1" r:id="rId3"/>
     <sheet name="ltp" sheetId="5" r:id="rId4"/>
     <sheet name="rmmn" sheetId="6" r:id="rId5"/>
-    <sheet name="control_resting_state" sheetId="7" r:id="rId6"/>
-    <sheet name="control_counting" sheetId="8" r:id="rId7"/>
-    <sheet name="control_mmn" sheetId="9" r:id="rId8"/>
+    <sheet name="Nimitta" sheetId="10" r:id="rId6"/>
+    <sheet name="control_resting_state" sheetId="7" r:id="rId7"/>
+    <sheet name="control_counting" sheetId="8" r:id="rId8"/>
+    <sheet name="control_mmn" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="694">
   <si>
     <t xml:space="preserve"> '../../data/mne_raw_events/sub0-day1-mindfulness_mmn-raw_phot-events.fif',</t>
   </si>
@@ -2035,6 +2036,96 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>F8, T8, P7</t>
+  </si>
+  <si>
+    <t>T7, T8</t>
+  </si>
+  <si>
+    <t>Fp2, F8, T8, CP2, P7, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t>AF3, F8, CP2, P7, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t>Fp1, Fpz, F8, CP2, P7, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t>AF4, F8, T8, Oz, O2</t>
+  </si>
+  <si>
+    <t>F8, T8, Poz, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t>F8, O1, Oz</t>
+  </si>
+  <si>
+    <t>T7, C4, T8</t>
+  </si>
+  <si>
+    <t>T7, T8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fp1, AF3, F8, C3, </t>
+  </si>
+  <si>
+    <t>F3, F8, T7, C3</t>
+  </si>
+  <si>
+    <t>Fpz, F8, C4</t>
+  </si>
+  <si>
+    <t>FC5, T7, CP6</t>
+  </si>
+  <si>
+    <t>VERY BAD, EXCLUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC1, P8, O2 </t>
+  </si>
+  <si>
+    <t>no events (event channel is empty)</t>
+  </si>
+  <si>
+    <t>Fz, Pz, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t>Poz, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t>Pz</t>
+  </si>
+  <si>
+    <t>T8, CP5</t>
+  </si>
+  <si>
+    <t>Fz, T8, CP5, P7, O2</t>
+  </si>
+  <si>
+    <t>many strong low psd waves, exclude?</t>
+  </si>
+  <si>
+    <t>FC5, T7, C3, CP5, P7</t>
+  </si>
+  <si>
+    <t>Fp1, Fpz, Fp2, FC5, C3, O2</t>
+  </si>
+  <si>
+    <t>Fp1, T7</t>
+  </si>
+  <si>
+    <t>FC2, CP5, P7, Poz, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last 70% are bad, exclude? </t>
+  </si>
+  <si>
+    <t>FC5, T7, CP5, P8, Poz, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last 605 are bad, exclude? </t>
   </si>
 </sst>
 </file>
@@ -5675,7 +5766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBACCC0F-E266-A943-974A-BDDED503B8D4}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="150" workbookViewId="0">
       <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
@@ -8257,8 +8348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BB47C0-2DFC-1B4A-8888-6AB061415F61}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A43" zoomScale="144" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8929,6 +9020,12 @@
       <c r="E23" t="s">
         <v>506</v>
       </c>
+      <c r="F23" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="G23" s="6">
+        <v>5</v>
+      </c>
       <c r="H23" s="6" t="s">
         <v>341</v>
       </c>
@@ -8952,6 +9049,12 @@
       <c r="E24" t="s">
         <v>506</v>
       </c>
+      <c r="F24" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" s="6">
+        <v>5</v>
+      </c>
       <c r="H24" s="6" t="s">
         <v>341</v>
       </c>
@@ -8975,6 +9078,12 @@
       <c r="E25" t="s">
         <v>506</v>
       </c>
+      <c r="F25" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4</v>
+      </c>
       <c r="H25" s="6" t="s">
         <v>341</v>
       </c>
@@ -8995,6 +9104,12 @@
       <c r="B26" s="8" t="s">
         <v>403</v>
       </c>
+      <c r="F26" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5</v>
+      </c>
       <c r="H26" s="6" t="s">
         <v>341</v>
       </c>
@@ -9015,6 +9130,12 @@
       <c r="B27" s="8" t="s">
         <v>404</v>
       </c>
+      <c r="F27" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G27" s="6">
+        <v>5</v>
+      </c>
       <c r="H27" s="6" t="s">
         <v>341</v>
       </c>
@@ -9035,6 +9156,12 @@
       <c r="B28" s="8" t="s">
         <v>405</v>
       </c>
+      <c r="F28" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G28" s="6">
+        <v>5</v>
+      </c>
       <c r="H28" s="6" t="s">
         <v>341</v>
       </c>
@@ -9055,6 +9182,12 @@
       <c r="B29" s="8" t="s">
         <v>406</v>
       </c>
+      <c r="F29" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="G29" s="6">
+        <v>6</v>
+      </c>
       <c r="H29" s="6" t="s">
         <v>341</v>
       </c>
@@ -9075,6 +9208,12 @@
       <c r="B30" s="8" t="s">
         <v>407</v>
       </c>
+      <c r="F30" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="G30" s="6">
+        <v>6</v>
+      </c>
       <c r="H30" s="6" t="s">
         <v>341</v>
       </c>
@@ -9095,6 +9234,12 @@
       <c r="B31" s="8" t="s">
         <v>408</v>
       </c>
+      <c r="F31" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G31" s="6">
+        <v>5</v>
+      </c>
       <c r="H31" s="6" t="s">
         <v>341</v>
       </c>
@@ -9118,6 +9263,12 @@
       <c r="E32" t="s">
         <v>506</v>
       </c>
+      <c r="F32" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="G32" s="6">
+        <v>8</v>
+      </c>
       <c r="H32" s="6" t="s">
         <v>341</v>
       </c>
@@ -9141,6 +9292,12 @@
       <c r="E33" t="s">
         <v>506</v>
       </c>
+      <c r="F33" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="G33" s="6">
+        <v>6</v>
+      </c>
       <c r="H33" s="6" t="s">
         <v>341</v>
       </c>
@@ -9164,6 +9321,12 @@
       <c r="E34" t="s">
         <v>506</v>
       </c>
+      <c r="F34" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="G34" s="6">
+        <v>6</v>
+      </c>
       <c r="H34" s="6" t="s">
         <v>341</v>
       </c>
@@ -9187,6 +9350,12 @@
       <c r="E35" t="s">
         <v>506</v>
       </c>
+      <c r="F35" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G35" s="6">
+        <v>5</v>
+      </c>
       <c r="H35" s="6" t="s">
         <v>341</v>
       </c>
@@ -9210,6 +9379,12 @@
       <c r="E36" t="s">
         <v>506</v>
       </c>
+      <c r="F36" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="G36" s="6">
+        <v>5</v>
+      </c>
       <c r="H36" s="6" t="s">
         <v>341</v>
       </c>
@@ -9233,6 +9408,12 @@
       <c r="E37" t="s">
         <v>506</v>
       </c>
+      <c r="F37" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="G37" s="6">
+        <v>3</v>
+      </c>
       <c r="H37" s="6" t="s">
         <v>341</v>
       </c>
@@ -9253,6 +9434,12 @@
       <c r="B38" s="8" t="s">
         <v>415</v>
       </c>
+      <c r="F38" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="6">
+        <v>8</v>
+      </c>
       <c r="H38" s="6" t="s">
         <v>341</v>
       </c>
@@ -9273,6 +9460,12 @@
       <c r="B39" s="8" t="s">
         <v>416</v>
       </c>
+      <c r="F39" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G39" s="6">
+        <v>6</v>
+      </c>
       <c r="H39" s="6" t="s">
         <v>341</v>
       </c>
@@ -9293,6 +9486,12 @@
       <c r="B40" s="8" t="s">
         <v>417</v>
       </c>
+      <c r="F40" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" s="6">
+        <v>6</v>
+      </c>
       <c r="H40" s="6" t="s">
         <v>341</v>
       </c>
@@ -9313,6 +9512,18 @@
       <c r="B41" s="8" t="s">
         <v>418</v>
       </c>
+      <c r="C41" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
       <c r="H41" s="6" t="s">
         <v>341</v>
       </c>
@@ -9333,6 +9544,18 @@
       <c r="B42" s="8" t="s">
         <v>419</v>
       </c>
+      <c r="C42" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
       <c r="H42" s="6" t="s">
         <v>341</v>
       </c>
@@ -9353,6 +9576,18 @@
       <c r="B43" s="8" t="s">
         <v>420</v>
       </c>
+      <c r="C43" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G43" s="6">
+        <v>7</v>
+      </c>
       <c r="H43" s="6" t="s">
         <v>341</v>
       </c>
@@ -9376,6 +9611,12 @@
       <c r="E44" t="s">
         <v>506</v>
       </c>
+      <c r="F44" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="G44" s="6">
+        <v>7</v>
+      </c>
       <c r="H44" s="6" t="s">
         <v>341</v>
       </c>
@@ -9399,6 +9640,12 @@
       <c r="E45" t="s">
         <v>506</v>
       </c>
+      <c r="F45" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G45" s="6">
+        <v>7</v>
+      </c>
       <c r="H45" s="6" t="s">
         <v>341</v>
       </c>
@@ -9422,6 +9669,12 @@
       <c r="E46" t="s">
         <v>506</v>
       </c>
+      <c r="F46" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="G46" s="6">
+        <v>6</v>
+      </c>
       <c r="H46" s="6" t="s">
         <v>341</v>
       </c>
@@ -9445,6 +9698,12 @@
       <c r="E47" t="s">
         <v>506</v>
       </c>
+      <c r="F47" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="G47" s="6">
+        <v>5</v>
+      </c>
       <c r="H47" s="6" t="s">
         <v>341</v>
       </c>
@@ -9468,6 +9727,12 @@
       <c r="E48" t="s">
         <v>506</v>
       </c>
+      <c r="F48" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G48" s="6">
+        <v>4</v>
+      </c>
       <c r="H48" s="6" t="s">
         <v>341</v>
       </c>
@@ -9491,6 +9756,12 @@
       <c r="E49" t="s">
         <v>506</v>
       </c>
+      <c r="F49" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="G49" s="6">
+        <v>5</v>
+      </c>
       <c r="H49" s="6" t="s">
         <v>341</v>
       </c>
@@ -9511,6 +9782,15 @@
       <c r="B50" s="8" t="s">
         <v>427</v>
       </c>
+      <c r="C50" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G50" s="6">
+        <v>4</v>
+      </c>
       <c r="H50" s="6" t="s">
         <v>341</v>
       </c>
@@ -9531,6 +9811,12 @@
       <c r="B51" s="8" t="s">
         <v>428</v>
       </c>
+      <c r="F51" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="G51" s="6">
+        <v>3</v>
+      </c>
       <c r="H51" s="6" t="s">
         <v>341</v>
       </c>
@@ -9551,6 +9837,15 @@
       <c r="B52" s="8" t="s">
         <v>429</v>
       </c>
+      <c r="C52" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="G52" s="6">
+        <v>3</v>
+      </c>
       <c r="H52" s="6" t="s">
         <v>341</v>
       </c>
@@ -9571,6 +9866,12 @@
       <c r="B53" s="8" t="s">
         <v>430</v>
       </c>
+      <c r="F53" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G53" s="6">
+        <v>8</v>
+      </c>
       <c r="H53" s="6" t="s">
         <v>341</v>
       </c>
@@ -9591,6 +9892,12 @@
       <c r="B54" s="8" t="s">
         <v>431</v>
       </c>
+      <c r="F54" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G54" s="6">
+        <v>7</v>
+      </c>
       <c r="H54" s="6" t="s">
         <v>341</v>
       </c>
@@ -9611,6 +9918,12 @@
       <c r="B55" s="8" t="s">
         <v>432</v>
       </c>
+      <c r="F55" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="G55" s="6">
+        <v>6</v>
+      </c>
       <c r="H55" s="6" t="s">
         <v>341</v>
       </c>
@@ -9634,6 +9947,12 @@
       <c r="E56" t="s">
         <v>506</v>
       </c>
+      <c r="F56" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="G56" s="6">
+        <v>7</v>
+      </c>
       <c r="H56" s="6" t="s">
         <v>341</v>
       </c>
@@ -9654,8 +9973,17 @@
       <c r="B57" s="1" t="s">
         <v>434</v>
       </c>
+      <c r="C57" t="s">
+        <v>691</v>
+      </c>
       <c r="E57" t="s">
         <v>506</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="G57" s="6">
+        <v>5</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>341</v>
@@ -9680,6 +10008,12 @@
       <c r="E58" t="s">
         <v>506</v>
       </c>
+      <c r="F58" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G58" s="6">
+        <v>6</v>
+      </c>
       <c r="H58" s="6" t="s">
         <v>341</v>
       </c>
@@ -9703,6 +10037,12 @@
       <c r="E59" t="s">
         <v>506</v>
       </c>
+      <c r="F59" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G59" s="6">
+        <v>7</v>
+      </c>
       <c r="H59" s="6" t="s">
         <v>341</v>
       </c>
@@ -9723,8 +10063,17 @@
       <c r="B60" s="1" t="s">
         <v>437</v>
       </c>
+      <c r="C60" t="s">
+        <v>693</v>
+      </c>
       <c r="E60" t="s">
         <v>506</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="G60" s="6">
+        <v>4</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>341</v>
@@ -9748,6 +10097,12 @@
       </c>
       <c r="E61" t="s">
         <v>506</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="G61" s="6">
+        <v>5</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>341</v>
@@ -10317,6 +10672,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9AC47-48E5-1240-8669-93A23DB62984}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6649963-3D88-8F47-B644-BB73E4924368}">
   <dimension ref="A1:I81"/>
   <sheetViews>
@@ -10921,7 +11290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B72203D-7819-B341-8B3D-782822DB3191}">
   <dimension ref="A1:J81"/>
   <sheetViews>
@@ -11295,12 +11664,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE2B193-76E3-CB4F-A6CD-A12651590AB7}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/notebooks/hand_cleaning/Cleaning notes.xlsx
+++ b/notebooks/hand_cleaning/Cleaning notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasmago/PhD_code_data/github/eeg_jhana/notebooks/hand_cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C797EF51-2D03-BB43-B024-F39E184D972A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AE14D8-6C2A-F247-AE51-56EB84147DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="8" xr2:uid="{8FBA2BF7-55C1-3B4F-BE0C-341332965AAD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{8FBA2BF7-55C1-3B4F-BE0C-341332965AAD}"/>
   </bookViews>
   <sheets>
     <sheet name="resting_state" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="744">
   <si>
     <t xml:space="preserve"> '../../data/mne_raw_events/sub0-day1-mindfulness_mmn-raw_phot-events.fif',</t>
   </si>
@@ -2126,6 +2126,156 @@
   </si>
   <si>
     <t xml:space="preserve">Last 605 are bad, exclude? </t>
+  </si>
+  <si>
+    <t>F7, T7, CP2, P7, P8</t>
+  </si>
+  <si>
+    <t>I applied 78 Notch filter to everyone</t>
+  </si>
+  <si>
+    <t>High frequency noise in frontal channels</t>
+  </si>
+  <si>
+    <t>POz, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t>F8, T7, T8</t>
+  </si>
+  <si>
+    <t>Fz, F8, T8, Pz, P8, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t>T7, T8, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t>T7, C4</t>
+  </si>
+  <si>
+    <t>Lots of shared noise</t>
+  </si>
+  <si>
+    <t>Fpz, Fp2, Fz, F8, CP6</t>
+  </si>
+  <si>
+    <t>F7, FC1, T7, T8, POz, O2</t>
+  </si>
+  <si>
+    <t>70% isch excluded</t>
+  </si>
+  <si>
+    <t>Fz, POz, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t>Fpz, FC5, T7, C3, CP5, P7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very noisy, exclude? </t>
+  </si>
+  <si>
+    <t>beginning super clean, end somewhat noisy</t>
+  </si>
+  <si>
+    <t>T7, C3, CP5, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub0-LTP_pre-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub1-LTP_post-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub1-LTP_pre-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub2-LTP_post-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub2-LTP_pre-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub3-LTP_post-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub3-LTP_pre-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub4-LTP_post-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub4-LTP_pre-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub5-LTP_post-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub5-LTP_pre-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub6-LTP_post-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub6-LTP_pre-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub7-LTP_post-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub7-LTP_pre-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub8-LTP_post-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub8-LTP_pre-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub9-LTP_post-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t>../../data/mne_raw/sub0-LTP_post-nimitta-raw.fif',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '../../data/mne_raw/sub9-LTP_pre-nimitta-raw.fif'</t>
+  </si>
+  <si>
+    <t>CP6</t>
+  </si>
+  <si>
+    <t>F7, F8, P7</t>
+  </si>
+  <si>
+    <t>relatively noisy</t>
+  </si>
+  <si>
+    <t>First half is bad</t>
+  </si>
+  <si>
+    <t>F8, T8, P7, P3</t>
+  </si>
+  <si>
+    <t>T8, CP2, P7, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t>T8, Poz, Oz, O2</t>
+  </si>
+  <si>
+    <t>F8, T7, T8, O1, Oz, O2</t>
+  </si>
+  <si>
+    <t>Fp1, Fpz, Fp2, F7, F3, F8, T7, T8, CP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAD, EXCLUDE, also looks like photo diode is from oddball task… </t>
+  </si>
+  <si>
+    <t>many flat channels</t>
+  </si>
+  <si>
+    <t>Fpz, Fp2, AF3, F7, Pz</t>
+  </si>
+  <si>
+    <t>FC2, T7, CP5, O1, Oz, O2</t>
   </si>
 </sst>
 </file>
@@ -10267,7 +10417,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10321,6 +10471,15 @@
       <c r="B2" s="7" t="s">
         <v>458</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="17">
       <c r="A3" s="6">
@@ -10329,6 +10488,12 @@
       <c r="B3" s="8" t="s">
         <v>440</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="17">
       <c r="A4">
@@ -10337,6 +10502,12 @@
       <c r="B4" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="E4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="17">
       <c r="A5">
@@ -10345,6 +10516,12 @@
       <c r="B5" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="E5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="17">
       <c r="A6" s="6">
@@ -10353,6 +10530,15 @@
       <c r="B6" s="8" t="s">
         <v>443</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="17">
       <c r="A7" s="6">
@@ -10361,6 +10547,12 @@
       <c r="B7" s="8" t="s">
         <v>444</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="17">
       <c r="A8">
@@ -10369,6 +10561,12 @@
       <c r="B8" s="1" t="s">
         <v>445</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="17">
       <c r="A9">
@@ -10377,6 +10575,12 @@
       <c r="B9" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F9" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="17">
       <c r="A10" s="6">
@@ -10385,6 +10589,12 @@
       <c r="B10" s="8" t="s">
         <v>447</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" ht="17">
       <c r="A11" s="6">
@@ -10393,6 +10603,12 @@
       <c r="B11" s="8" t="s">
         <v>448</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="17">
       <c r="A12">
@@ -10401,6 +10617,12 @@
       <c r="B12" s="1" t="s">
         <v>449</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="F12" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="17">
       <c r="A13">
@@ -10409,6 +10631,12 @@
       <c r="B13" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="F13" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="17">
       <c r="A14" s="6">
@@ -10417,6 +10645,15 @@
       <c r="B14" s="8" t="s">
         <v>451</v>
       </c>
+      <c r="C14" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="F14" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="17">
       <c r="A15" s="6">
@@ -10425,6 +10662,15 @@
       <c r="B15" s="8" t="s">
         <v>452</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="F15" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="17">
       <c r="A16">
@@ -10433,78 +10679,120 @@
       <c r="B16" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="17">
+      <c r="E16" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="F16" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="6" customFormat="1" ht="17">
+      <c r="E17" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="6" customFormat="1" ht="17">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" ht="17">
+      <c r="C18" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="F18" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="6" customFormat="1" ht="17">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="17">
+      <c r="C19" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="17">
+      <c r="E20" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="F20" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="17">
+      <c r="E21" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F21" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="17">
+    <row r="23" spans="1:6" ht="17">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" ht="17">
+    <row r="24" spans="1:6" ht="17">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" ht="17">
+    <row r="25" spans="1:6" ht="17">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="17">
+    <row r="26" spans="1:6" ht="17">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" ht="17">
+    <row r="27" spans="1:6" ht="17">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" ht="17">
+    <row r="28" spans="1:6" ht="17">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" ht="17">
+    <row r="29" spans="1:6" ht="17">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="17">
+    <row r="30" spans="1:6" ht="17">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" ht="17">
+    <row r="31" spans="1:6" ht="17">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" ht="17">
+    <row r="32" spans="1:6" ht="17">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" ht="17">
@@ -10673,14 +10961,415 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9AC47-48E5-1240-8669-93A23DB62984}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="F2" s="6">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="17">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="17">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C5" t="s">
+        <v>733</v>
+      </c>
+      <c r="E5" t="s">
+        <v>732</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="17">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="17">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C9" t="s">
+        <v>734</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="F10" s="6">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="17">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="17">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="6">
+        <v>8</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="17">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="17">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="17">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="17">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="F20" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17">
+      <c r="B22" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:F22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11668,8 +12357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE2B193-76E3-CB4F-A6CD-A12651590AB7}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
